--- a/biology/Botanique/Staurogyne_kamerunensis/Staurogyne_kamerunensis.xlsx
+++ b/biology/Botanique/Staurogyne_kamerunensis/Staurogyne_kamerunensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Staurogyne kamerunensis (Engl.) Benoist est une espèce d'herbes de la famille des Acanthaceae et du genre Staurogyne, présente en Afrique tropicale.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (28 juillet 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (28 juillet 2017) :
 sous-espèce Staurogyne kamerunensis subsp. calabarensis
 sous-espèce Staurogyne kamerunensis subsp. kamerunensis</t>
         </is>
@@ -543,12 +557,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Relativement rare, la sous-espèce calabarensis, qui ne dépasse pas 10 cm dehauteur, est surtout présente au sud-est du Nigeria, également au sud-ouest du Cameroun[3] à une altitude allant de 400 à 600 mètres dans les forêts sempervirentes des plaines[4] et les forêts tropicales[5].
-La sous-espèce kamerunensis, qui peut mesurer jusqu’à 45 cm de hauteur[5], pousse principalement dans le sud du Cameroun à une altitude de 400 à 600 mètres dans les forêts sempervirentes des plaines[6].
-Ses fleurs couleur blanc-crème atteignent jusqu’à 1,20 cm de longueur[5].
-Subendémique, assez rare, cette sous-espèce est considérée comme quasi menacée étant donné le nombre peu élevé de localisations et le développement de l’agriculture[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Relativement rare, la sous-espèce calabarensis, qui ne dépasse pas 10 cm dehauteur, est surtout présente au sud-est du Nigeria, également au sud-ouest du Cameroun à une altitude allant de 400 à 600 mètres dans les forêts sempervirentes des plaines et les forêts tropicales.
+La sous-espèce kamerunensis, qui peut mesurer jusqu’à 45 cm de hauteur, pousse principalement dans le sud du Cameroun à une altitude de 400 à 600 mètres dans les forêts sempervirentes des plaines.
+Ses fleurs couleur blanc-crème atteignent jusqu’à 1,20 cm de longueur.
+Subendémique, assez rare, cette sous-espèce est considérée comme quasi menacée étant donné le nombre peu élevé de localisations et le développement de l’agriculture.
 </t>
         </is>
       </c>
